--- a/delphi.xlsx
+++ b/delphi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1112d360afa47f28/Documents/P3AT_LY-P/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive\Documents\AzureGit%20-%20P3AT%20Team1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{526167E9-8ABC-46E4-8F75-EB58342FEB77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{D7FB5090-6409-4F8E-8EE3-D18E0782404F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -577,7 +577,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/delphi.xlsx
+++ b/delphi.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive\Documents\AzureGit%20-%20P3AT%20Team1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{D7FB5090-6409-4F8E-8EE3-D18E0782404F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -177,13 +171,31 @@
   </si>
   <si>
     <t>Schätzung in h</t>
+  </si>
+  <si>
+    <t>Ist nicht wirklich nötig gewesen/wo anders verbucht</t>
+  </si>
+  <si>
+    <t>Fürs erste abgeschlossen</t>
+  </si>
+  <si>
+    <t>Sollte für diesen Sprint (neu) geschätzt werden</t>
+  </si>
+  <si>
+    <t>Für diesen Sprint nicht relevant</t>
+  </si>
+  <si>
+    <t>Projektstruktur im Code</t>
+  </si>
+  <si>
+    <t>Für diesen Sprint bereits nötig, aber nicht geschätzt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,12 +219,42 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -227,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -236,6 +278,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -254,9 +301,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,9 +341,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,27 +375,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,27 +409,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -573,21 +584,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,9 +627,12 @@
       <c r="I1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="K1" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2"/>
@@ -626,9 +641,12 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="K2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2">
@@ -654,9 +672,12 @@
         <f>B3*H3</f>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="K3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2">
@@ -682,9 +703,12 @@
         <f>B4*H4</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="K4" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2">
@@ -710,9 +734,12 @@
         <f t="shared" ref="I5:I17" si="0">B5*H5</f>
         <v>19.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="K5" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2">
@@ -739,8 +766,8 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2">
@@ -767,8 +794,8 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2">
@@ -795,8 +822,8 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2">
@@ -823,8 +850,8 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="2">
@@ -851,8 +878,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11">
+      <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2">
@@ -879,8 +906,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2">
@@ -907,8 +934,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="2">
@@ -935,8 +962,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2">
@@ -963,7 +990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -979,8 +1006,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:11">
+      <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="2">
@@ -1007,8 +1034,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="2">
@@ -1034,10 +1061,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I19">
-        <f>SUM(I2:I16)</f>
-        <v>172.75</v>
+    <row r="18" spans="1:9">
+      <c r="A18" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="I21">
+        <f>SUM(I2:I20)</f>
+        <v>196.75</v>
       </c>
     </row>
   </sheetData>
@@ -1048,24 +1080,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
